--- a/main_dataframe_database.xlsx
+++ b/main_dataframe_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,15 +900,11 @@
       <c r="AH3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1050,15 +1046,11 @@
       <c r="AH4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1200,15 +1192,11 @@
       <c r="AH5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1357,15 +1345,11 @@
       <c r="AH6" t="b">
         <v>0</v>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1507,15 +1491,11 @@
       <c r="AH7" t="b">
         <v>0</v>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1657,15 +1637,11 @@
       <c r="AH8" t="b">
         <v>0</v>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1730,10 +1706,8 @@
           <t>F210416513K3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2150</t>
-        </is>
+      <c r="N9" t="n">
+        <v>2150</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1810,15 +1784,1041 @@
       <c r="AH9" t="b">
         <v>0</v>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="AI9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>F230316011EH</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1N4148WG-Cu-L10</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2315</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3DS1N4148W0SB01</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1N4148WG</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>F230316011EH</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>2315</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>SOD123</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="T10" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>[3000, 3000, 60000]</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>[3000, 3000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="AD10" t="n">
+        <v>6277</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>125</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>F23031601109</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1N4148WG-Cu-L10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2315</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>77000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3DS1N4148W0SB01</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1N4148WG</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>F23031601109</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>2315</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>77000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>SOD123</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="T11" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>[17000, 77000, 60000]</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>[77000, 77000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>6281</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ZR374H600Z0710</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>M4G-100</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2137</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2021/09/05</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3DSGS1G4000SB01</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M4G</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>ZR374H600Z0710</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>2137</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2021/09/05</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>LSYM M4</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7500</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>[0, 15000, 15000]</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>[0, 1, 1]</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>[15000, 15000, 120000]</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>315</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7500</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>F210813041AC</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MBRD5100G-L10</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2148</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2021/11/21</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3DYMBRD5100SB01</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>MBRD5100</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>F210813041AC</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>2148</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2021/11/21</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>LSYM
+MBRD5100</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>TO252</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="T13" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 50000]</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 200000]</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
+        <v>3646</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>windows user:
+力神料號
+MBRD10100CTG-LS02</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PB1-2111000268</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>F220322022DK</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MMSZ5243BG-L10</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2239</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2022/09/25</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3DZ013W505S0B02</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>MMSZ5243BG</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>F220322022DK</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>2239</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2022/09/25</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>SOD123</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="T14" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>[6000, 6000, 60000]</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>[6000, 6000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
+        <v>5363</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PB1-2308000138</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>H202306201101002</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P2SD75AG-730</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2325</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023/06/18</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3DT075200U0SB01</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>P2SD75AG</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>H202306201101002</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>2325</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2023/06/18</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>XR</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>SOD123FL</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0344</v>
+      </c>
+      <c r="T15" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 60000]</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>6230</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PB1-2105000582</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F210416513K3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P4SMAJ64AG-L10</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2150</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2021/09/26</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3DT064400U0SB03</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>P4SMAJ64AG</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>F210416513K3</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>2150</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2021/09/26</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>LSYM
+RM</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="T16" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>[3600, 3600, 25200]</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>[3600, 3600, 100800]</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>6086</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/main_dataframe_database.xlsx
+++ b/main_dataframe_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2821,6 +2821,1036 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>F230316011EH</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1N4148WG-Cu-L10</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2315</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>3DS1N4148W0SB01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1N4148WG</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>F230316011EH</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>2315</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>SOD123</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="T17" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>[3000, 3000, 60000]</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>[3000, 3000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>6277</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="n">
+        <v>125</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F23031601109</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1N4148WG-Cu-L10</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2315</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>77000</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3DS1N4148W0SB01</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1N4148WG</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>F23031601109</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>2315</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2023/04/09</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>77000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>SOD123</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="T18" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>[17000, 77000, 60000]</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>[1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>[77000, 77000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>6281</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ZR374H600Z0710</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>M4G-100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2137</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2021/09/05</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>3DSGS1G4000SB01</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M4G</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>ZR374H600Z0710</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>2137</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2021/09/05</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>LSYM M4</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="T19" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7500</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>[0, 15000, 15000]</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>[0, 1, 1]</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>[15000, 15000, 120000]</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="AD19" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="n">
+        <v>315</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7500</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PB1-2307000305</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F210813041AC</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>MBRD5100G-L10</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2148</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2021/11/21</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3DYMBRD5100SB01</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>MBRD5100</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>F210813041AC</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>2148</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2021/11/21</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>LSYM
+MBRD5100</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>TO252</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="T20" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 50000]</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 200000]</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>3646</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>windows user:
+力神料號
+MBRD10100CTG-LS02</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PB1-2111000268</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>F220322022DK</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>MMSZ5243BG-L10</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2239</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2022/09/25</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3DZ013W505S0B02</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>MMSZ5243BG</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>F220322022DK</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>2239</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2022/09/25</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>SOD123</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="T21" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>[6000, 6000, 60000]</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>[6000, 6000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
+        <v>5363</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PB1-2308000138</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>H202306201101002</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>P2SD75AG-730</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2325</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023/06/18</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3DT075200U0SB01</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>P2SD75AG</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>H202306201101002</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>2325</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2023/06/18</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>XR</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>SOD123FL</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0344</v>
+      </c>
+      <c r="T22" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2500</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 60000]</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>[5000, 5000, 240000]</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
+        <v>6230</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2500</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023/08/15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>I230815001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PB1-2105000582</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>B0000010-3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>協禧微機電</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>F210416513K3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>P4SMAJ64AG-L10</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2150</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2021/09/26</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3DT064400U0SB03</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>P4SMAJ64AG</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>F210416513K3</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>2150</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2021/09/26</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>LSYM
+RM</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="T23" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>[3600, 3600, 25200]</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>[1, 1, 0]</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>[3600, 3600, 100800]</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>[1, 2, 0]</t>
+        </is>
+      </c>
+      <c r="AA23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>6086</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/main_dataframe_database.xlsx
+++ b/main_dataframe_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
   <si>
     <t>delivery_date</t>
   </si>
@@ -129,39 +129,12 @@
     <t>day</t>
   </si>
   <si>
-    <t>2023/08/15</t>
-  </si>
-  <si>
-    <t>I230815001</t>
-  </si>
-  <si>
-    <t>PB1-2307000305</t>
-  </si>
-  <si>
     <t>B0000010-3</t>
   </si>
   <si>
     <t>協禧微機電</t>
   </si>
   <si>
-    <t>F230316011EH</t>
-  </si>
-  <si>
-    <t>1N4148WG-Cu-L10</t>
-  </si>
-  <si>
-    <t>2023/04/09</t>
-  </si>
-  <si>
-    <t>3DS1N4148W0SB01</t>
-  </si>
-  <si>
-    <t>1N4148WG</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>SOD123</t>
   </si>
   <si>
@@ -177,115 +150,144 @@
     <t>[1, 2, 0]</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F23031601109</t>
-  </si>
-  <si>
-    <t>[17000, 77000, 60000]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[77000, 77000, 240000]</t>
-  </si>
-  <si>
-    <t>ZR374H600Z0710</t>
-  </si>
-  <si>
-    <t>M4G-100</t>
-  </si>
-  <si>
-    <t>2021/09/05</t>
-  </si>
-  <si>
-    <t>3DSGS1G4000SB01</t>
-  </si>
-  <si>
-    <t>M4G</t>
-  </si>
-  <si>
-    <t>LSYM M4</t>
-  </si>
-  <si>
     <t>SMA</t>
   </si>
   <si>
-    <t>[0, 15000, 15000]</t>
-  </si>
-  <si>
-    <t>[0, 1, 1]</t>
-  </si>
-  <si>
-    <t>[15000, 15000, 120000]</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>F210813041AC</t>
-  </si>
-  <si>
-    <t>MBRD5100G-L10</t>
-  </si>
-  <si>
     <t>2021/11/21</t>
   </si>
   <si>
-    <t>3DYMBRD5100SB01</t>
-  </si>
-  <si>
-    <t>MBRD5100</t>
+    <t>2024/03/13</t>
+  </si>
+  <si>
+    <t>I240319001</t>
+  </si>
+  <si>
+    <t>PB1-2402000054</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>PB1-2401000055</t>
+  </si>
+  <si>
+    <t>PB1-2312000284</t>
+  </si>
+  <si>
+    <t>[15000, 15000, 60000]</t>
+  </si>
+  <si>
+    <t>[15000, 15000, 240000]</t>
+  </si>
+  <si>
+    <t>PB1-2401000283</t>
+  </si>
+  <si>
+    <t>PB1-2312000190</t>
+  </si>
+  <si>
+    <t>S10MHG-1-060</t>
+  </si>
+  <si>
+    <t>2023/04/06</t>
+  </si>
+  <si>
+    <t>3DSGS1006FLSB01</t>
+  </si>
+  <si>
+    <t>S10JHG</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>SOD123FH</t>
+  </si>
+  <si>
+    <t>[27000, 27000, 60000]</t>
+  </si>
+  <si>
+    <t>[27000, 27000, 240000]</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>3DSS10JHG00SB01</t>
+  </si>
+  <si>
+    <t>[42000, 42000, 60000]</t>
+  </si>
+  <si>
+    <t>[42000, 42000, 240000]</t>
+  </si>
+  <si>
+    <t>E210907031C5</t>
+  </si>
+  <si>
+    <t>SS1040G-CU-L10</t>
+  </si>
+  <si>
+    <t>3DYSS104000SB01</t>
+  </si>
+  <si>
+    <t>SS1040G</t>
+  </si>
+  <si>
+    <t>E210907031C5B</t>
+  </si>
+  <si>
+    <t>2023/11/21</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>windows user:
+SSH1040G</t>
+  </si>
+  <si>
+    <t>[9000, 9000, 60000]</t>
+  </si>
+  <si>
+    <t>[9000, 9000, 240000]</t>
+  </si>
+  <si>
+    <t>F221129012GY</t>
+  </si>
+  <si>
+    <t>SS34AG-L10</t>
+  </si>
+  <si>
+    <t>2023/01/08</t>
+  </si>
+  <si>
+    <t>3DYSS34AG00SB01</t>
+  </si>
+  <si>
+    <t>SS34AG</t>
   </si>
   <si>
     <t>LSYM
-MBRD5100</t>
-  </si>
-  <si>
-    <t>TO252</t>
-  </si>
-  <si>
-    <t>[5000, 5000, 50000]</t>
-  </si>
-  <si>
-    <t>[5000, 5000, 200000]</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>windows user:
-力神料號
-MBRD10100CTG-LS02</t>
-  </si>
-  <si>
-    <t>PB1-2111000268</t>
-  </si>
-  <si>
-    <t>F220322022DK</t>
-  </si>
-  <si>
-    <t>MMSZ5243BG-L10</t>
-  </si>
-  <si>
-    <t>2022/09/25</t>
-  </si>
-  <si>
-    <t>3DZ013W505S0B02</t>
-  </si>
-  <si>
-    <t>MMSZ5243BG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>[6000, 6000, 60000]</t>
-  </si>
-  <si>
-    <t>[6000, 6000, 240000]</t>
+SS34A</t>
+  </si>
+  <si>
+    <t>[7500, 7500, 15000]</t>
+  </si>
+  <si>
+    <t>[7500, 7500, 120000]</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>PB1-2402000160</t>
+  </si>
+  <si>
+    <t>PB1-2403000090</t>
   </si>
 </sst>
 </file>
@@ -657,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -777,82 +779,82 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
+      <c r="F2">
+        <v>34331004</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J2">
-        <v>3000</v>
+        <v>27000</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="M2">
+        <v>34331004</v>
       </c>
       <c r="N2">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P2">
-        <v>3000</v>
+        <v>27000</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S2">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="T2">
-        <v>31.64</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
       </c>
       <c r="U2">
         <v>3000</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AA2">
         <v>11</v>
@@ -861,105 +863,105 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AD2">
-        <v>6277</v>
+        <v>5733</v>
       </c>
       <c r="AF2">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="AG2">
         <v>3000</v>
       </c>
       <c r="AH2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
+      <c r="F3">
+        <v>34331004</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>3000</v>
+        <v>42000</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="M3">
+        <v>34331004</v>
       </c>
       <c r="N3">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P3">
-        <v>3000</v>
+        <v>42000</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S3">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="T3">
-        <v>31.64</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
       </c>
       <c r="U3">
         <v>3000</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AA3">
         <v>11</v>
@@ -968,460 +970,681 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AD3">
-        <v>6277</v>
+        <v>5733</v>
       </c>
       <c r="AF3">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="AG3">
         <v>3000</v>
       </c>
       <c r="AH3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>2148</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4">
+        <v>2348</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4">
+        <v>3000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4">
-        <v>2315</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4">
-        <v>77000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4">
-        <v>2315</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4">
-        <v>77000</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
       <c r="S4">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="T4">
-        <v>31.64</v>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
       </c>
       <c r="U4">
         <v>3000</v>
       </c>
       <c r="V4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AA4">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AB4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="AD4">
-        <v>6281</v>
+        <v>5478</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>75</v>
       </c>
       <c r="AF4">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="AG4">
         <v>3000</v>
       </c>
       <c r="AH4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H5">
-        <v>2137</v>
+        <v>2148</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>15000</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N5">
-        <v>2137</v>
+        <v>2348</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P5">
         <v>15000</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="S5">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="T5">
-        <v>31.64</v>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
       </c>
       <c r="U5">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AA5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AD5">
-        <v>3090</v>
+        <v>5478</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>75</v>
       </c>
       <c r="AF5">
         <v>315</v>
       </c>
       <c r="AG5">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="AH5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
         <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
       </c>
       <c r="H6">
         <v>2148</v>
       </c>
       <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>9000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="J6">
-        <v>5000</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6">
+        <v>2348</v>
+      </c>
+      <c r="O6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6">
-        <v>2148</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
-      </c>
       <c r="P6">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q6" t="s">
         <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="S6">
-        <v>0.1067</v>
-      </c>
-      <c r="T6">
-        <v>31.64</v>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
       </c>
       <c r="U6">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AA6">
         <v>28</v>
       </c>
       <c r="AB6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AD6">
-        <v>3646</v>
+        <v>5478</v>
       </c>
       <c r="AE6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF6">
         <v>200</v>
       </c>
       <c r="AG6">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AH6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AJ6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7">
+        <v>2302</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>7500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7">
+        <v>2302</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <v>7500</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7">
+        <v>0.03</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7">
+        <v>7500</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7">
-        <v>2239</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7">
-        <v>6000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7">
-        <v>2239</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7">
-        <v>6000</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Y7" t="s">
         <v>85</v>
       </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="T7">
-        <v>31.64</v>
-      </c>
-      <c r="U7">
-        <v>3000</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>87</v>
-      </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AA7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="AD7">
-        <v>5363</v>
+        <v>6056</v>
       </c>
       <c r="AF7">
         <v>200</v>
       </c>
       <c r="AG7">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="AH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>2302</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>7500</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8">
+        <v>2302</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>7500</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8">
+        <v>0.03</v>
+      </c>
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8">
+        <v>7500</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8">
+        <v>14</v>
+      </c>
+      <c r="AB8" t="b">
         <v>0</v>
       </c>
-      <c r="AI7">
-        <v>8</v>
-      </c>
-      <c r="AJ7">
-        <v>15</v>
+      <c r="AC8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8">
+        <v>6056</v>
+      </c>
+      <c r="AF8">
+        <v>200</v>
+      </c>
+      <c r="AG8">
+        <v>7500</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>3</v>
+      </c>
+      <c r="AJ8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>2302</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>7500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9">
+        <v>2302</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <v>7500</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9">
+        <v>0.03</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9">
+        <v>7500</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD9">
+        <v>6056</v>
+      </c>
+      <c r="AF9">
+        <v>200</v>
+      </c>
+      <c r="AG9">
+        <v>7500</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AJ9">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>